--- a/biology/Zoologie/Indopithèque/Indopithèque.xlsx
+++ b/biology/Zoologie/Indopithèque/Indopithèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indopith%C3%A8que</t>
+          <t>Indopithèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indopithecus
-Indopithecus est un genre éteint de primates de la famille des hominidés, qui vivait en Asie du Sud durant le Miocène supérieur, il y a 8 à 9 millions d'années[1].
+Indopithecus est un genre éteint de primates de la famille des hominidés, qui vivait en Asie du Sud durant le Miocène supérieur, il y a 8 à 9 millions d'années.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indopith%C3%A8que</t>
+          <t>Indopithèque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers restes fossiles d'Indopithèque ont été découverts au début du XXe siècle au nord du sous-continent indien, dans la chaine des Siwaliks qui forme le piémont himalayen en Inde et au Pakistan.
 Dans la même région ont été trouvés à la même époque des fossiles de Sivapithèque, un genre apparenté.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indopith%C3%A8que</t>
+          <t>Indopithèque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Indopithecus ne comprend qu'une seule espèce, mais qui a été connue sous différents noms selon les époques. L'appellation retenue dans cet article correspond à la priorité donnée aux dénominations antérieures telles qu'adoptées par les spécialistes dans leurs études les plus récentes[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Indopithecus ne comprend qu'une seule espèce, mais qui a été connue sous différents noms selon les époques. L'appellation retenue dans cet article correspond à la priorité donnée aux dénominations antérieures telles qu'adoptées par les spécialistes dans leurs études les plus récentes, :
 Indopithecus giganteus (Pilgrim, 1915).
 La morphologie du genre Indopithecus étant proche de celle du genre Gigantopithecus, l'espèce est aussi connue sous ses anciennes appellations :
 Gigantopithecus giganteus ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indopith%C3%A8que</t>
+          <t>Indopithèque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est attestée entre 8,9 et 8,6 millions d'années, durant l'étage du Tortonien.
-De la taille d'un gros orang-outan, elle est la plus grande espèce connue de primates du sous-continent indien durant le Miocène, d'où le choix de son appellation[2].
+De la taille d'un gros orang-outan, elle est la plus grande espèce connue de primates du sous-continent indien durant le Miocène, d'où le choix de son appellation.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indopith%C3%A8que</t>
+          <t>Indopithèque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,11 +628,13 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Indopithecus appartient à la sous-famille des Ponginae, dont le seul genre subsistant est l'Orang-outan.
-Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996)[3] et Springer et al. (2012)[4] :
-Phylogénie des genres de ponginés, d'après James Birx et al. (2010)[5] et David Begun (2015)[6] :
+Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996) et Springer et al. (2012) :
+Phylogénie des genres de ponginés, d'après James Birx et al. (2010) et David Begun (2015) :
 </t>
         </is>
       </c>
